--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="G9" s="73" t="n">
-        <v>45591</v>
+        <v>45593</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -1975,9 +1975,7 @@
           <t>case</t>
         </is>
       </c>
-      <c r="E20" s="41" t="n">
-        <v>307754</v>
-      </c>
+      <c r="E20" s="41" t="inlineStr"/>
       <c r="F20" s="42" t="n"/>
       <c r="G20" s="42" t="n"/>
     </row>
